--- a/ReportGenerator/xls-templates/proposal-template.xlsx
+++ b/ReportGenerator/xls-templates/proposal-template.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="-15" windowWidth="5760" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -142,9 +147,6 @@
     <t>Important notes</t>
   </si>
   <si>
-    <t>${group.item.flight.type}</t>
-  </si>
-  <si>
     <t>&lt;jx:if test="${'Audience'.equals(group.item.flight.type)}"&gt;</t>
   </si>
   <si>
@@ -155,13 +157,19 @@
   </si>
   <si>
     <t>&lt;jx:if test="${'Network/Custom'.equals(group.item.flight.type)}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${exporter.excludeNetworkDetails == true}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:if test="${exporter.excludeNetworkDetails == false}"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,21 +212,37 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,11 +253,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0099D8"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,16 +266,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -276,39 +295,286 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="119">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -322,10 +588,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>608463</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:rowOff>295062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -344,7 +610,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="85725" y="47625"/>
-          <a:ext cx="2743200" cy="247650"/>
+          <a:ext cx="2999238" cy="247437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -647,584 +913,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.45" customHeight="1"/>
     <row r="2" spans="1:4" ht="14.45" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:4" ht="14.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" customHeight="1" thickTop="1">
-      <c r="A5" s="7" t="s">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" thickTop="1">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" customHeight="1">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" customHeight="1"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" ht="14.45" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="14.45" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:4" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A11" s="7" t="s">
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A20" t="s">
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A23" t="s">
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickTop="1">
       <c r="A59" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="9" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" t="s">
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A73" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B80" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>